--- a/examples/Australia OGD/go_card_retailers/go-card-retailer-locations_summary.xlsx
+++ b/examples/Australia OGD/go_card_retailers/go-card-retailer-locations_summary.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -365,97 +433,47 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>COMPLETENESSMANDATORY SCORE</t>
+          <t>COMPLETENESSOPTIONAL</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>COMPLETENESSOPTIONAL</t>
+          <t>PRECISION</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>COMPLETENESSOPTIONAL SCORE</t>
+          <t>BUSINESSRULECOMPLIANCE</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>PRECISION</t>
+          <t>METADATACOMPLIANCE</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>PRECISION SCORE</t>
+          <t>UNIQUENESS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>BUSINESSRULECOMPLIANCE</t>
+          <t>NONREDUNDANCY</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>BUSINESSRULECOMPLIANCE SCORE</t>
+          <t>SEMANTICCONSISTENCY</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>METADATACOMPLIANCE</t>
+          <t>VALUECONSISTENCY</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>METADATACOMPLIANCE SCORE</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>UNIQUENESS</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>UNIQUENESS SCORE</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>NONREDUNDANCY</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>NONREDUNDANCY SCORE</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>SEMANTICCONSISTENCY</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>SEMANTICCONSISTENCY SCORE</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY SCORE</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
           <t>FORMATCONSISTENCY</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>FORMATCONSISTENCY SCORE</t>
         </is>
       </c>
     </row>
@@ -495,36 +513,6 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -545,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -557,39 +545,9 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -629,36 +587,6 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -696,36 +624,6 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -763,36 +661,6 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -830,36 +698,6 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -880,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -892,39 +730,9 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -964,36 +772,6 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1031,36 +809,6 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1098,36 +846,6 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1148,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1160,39 +878,9 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1215,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1227,39 +915,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1282,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1294,39 +952,9 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1349,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1361,39 +989,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1416,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1428,39 +1026,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1483,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1495,39 +1063,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1550,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1562,39 +1100,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1617,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1629,39 +1137,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1684,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1696,39 +1174,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1751,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1763,39 +1211,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
         <v>0</v>
       </c>
     </row>
